--- a/Membership/Membership Setup/Main.rvl.xlsx
+++ b/Membership/Membership Setup/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t>Flow</t>
   </si>
@@ -91,6 +91,57 @@
   </si>
   <si>
     <t>Create Benefits, Rates, Price Level XRef</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>********Run Test: Open test Org*******</t>
+  </si>
+  <si>
+    <t>DoPlayScript</t>
+  </si>
+  <si>
+    <t>scriptPath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Global\Open test Org\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>********Run Test: Create New Location Setup*******</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Dues Billing Product*******</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Membership\Create Dues Billing Product</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Membership\Create Installments</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Membership\Create Prorate Setup</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Membership\Create Benefit</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Installments*******</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Prorate Setup*******</t>
+  </si>
+  <si>
+    <t>********Run Test: Create Benefit*******</t>
+  </si>
+  <si>
+    <t>The Create Rate and Price Level X-Ref tests will run from the Create Benefit test.</t>
   </si>
 </sst>
 </file>
@@ -111,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="164">
+  <borders count="190">
     <border>
       <left/>
       <right/>
@@ -282,11 +333,37 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -451,6 +528,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="161" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="162" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="163" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -500,60 +603,64 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="165"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="A4" s="164"/>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="30" t="s">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="32"/>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6">
       <c r="A6" s="41" t="s">
@@ -570,143 +677,161 @@
       <c r="H6" s="48"/>
     </row>
     <row r="7">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="51" t="s">
+      <c r="A7" s="167"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E8" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="56"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
+      <c r="G8" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="56"/>
     </row>
     <row r="9">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B10" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="72"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="161"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="186"/>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="161"/>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="81" t="s">
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B14" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="162"/>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="187"/>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="104"/>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="163"/>
+      <c r="A16" s="162"/>
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -723,68 +848,155 @@
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="105"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="112"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
     </row>
     <row r="18">
-      <c r="A18" s="121"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="128"/>
+      <c r="A18" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="104"/>
     </row>
     <row r="19">
-      <c r="A19" s="129"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="136"/>
+      <c r="A19" s="188"/>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="137"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="144"/>
+      <c r="A20" s="189"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="145"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="152"/>
+      <c r="A21" s="163"/>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="153"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="160"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="112"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="121"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="128"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="136"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="137"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="144"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="145"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="152"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="153"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="160"/>
     </row>
   </sheetData>
 </worksheet>
